--- a/config/spt2back/spt2back_run5.xlsx
+++ b/config/spt2back/spt2back_run5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="34" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="102" uniqueCount="7">
   <si>
     <t>trial</t>
   </si>
@@ -116,7 +116,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -130,7 +130,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -141,10 +141,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -155,7 +155,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="0">
         <v>10</v>
@@ -172,7 +172,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -186,7 +186,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -214,7 +214,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -239,10 +239,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -267,10 +267,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -281,10 +281,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -298,7 +298,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -312,7 +312,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -326,7 +326,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="0">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -340,7 +340,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -354,7 +354,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -368,7 +368,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -379,10 +379,10 @@
         <v>38</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -393,10 +393,10 @@
         <v>40</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="0">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -410,7 +410,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -421,10 +421,10 @@
         <v>44</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -435,10 +435,10 @@
         <v>46</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -449,10 +449,10 @@
         <v>48</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -466,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -480,7 +480,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -505,10 +505,10 @@
         <v>56</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -519,10 +519,10 @@
         <v>58</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
